--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101138</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101138</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640236423</v>
+        <v>1146088.991920622</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640236423</v>
+        <v>1146088.991920622</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342639688.263796</v>
+        <v>54322494.34374294</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12025.17209787158</v>
+        <v>1279241.6513731</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22980.22814451597</v>
+        <v>2381196.561664119</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33935.28419116035</v>
+        <v>3483151.471955141</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45463.39788885493</v>
+        <v>4548444.748052773</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56991.5115865495</v>
+        <v>5613738.024150404</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68519.62528424409</v>
+        <v>6679031.300248033</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80047.73898193863</v>
+        <v>7744324.57634566</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91575.8526796332</v>
+        <v>8809617.852443287</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102904.8219920532</v>
+        <v>9875491.049250327</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114258.7367590187</v>
+        <v>10946328.39151206</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125612.6515259843</v>
+        <v>12017165.7337738</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136966.5662929468</v>
+        <v>13088003.07603572</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148320.4810599092</v>
+        <v>14158840.41829767</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159674.3958268766</v>
+        <v>15229677.76055906</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171028.3105938423</v>
+        <v>16300515.10282063</v>
       </c>
     </row>
   </sheetData>
